--- a/Douglas/Hours Tracking (1).xlsx
+++ b/Douglas/Hours Tracking (1).xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -68,13 +68,124 @@
   </si>
   <si>
     <t>Save</t>
+  </si>
+  <si>
+    <t>The Engineer Accelerator September 2016</t>
+  </si>
+  <si>
+    <t>Deliverables Tracking</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Estimate the number of hours it will take to complete the Product Definition</t>
+  </si>
+  <si>
+    <t>By Class Time</t>
+  </si>
+  <si>
+    <t>Enter the total hours it took to complete the Product Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by the end of class </t>
+  </si>
+  <si>
+    <t>Estimate the hours to complete Realization</t>
+  </si>
+  <si>
+    <t>Estimate the hours to complete the Architecture</t>
+  </si>
+  <si>
+    <t>Major Components BOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of Day. </t>
+  </si>
+  <si>
+    <t>I will order parts on Monday to make sure they are in house by Saturday. If you do not get me the parts order by then you may not be able to build you project.</t>
+  </si>
+  <si>
+    <t>Enter the total hours it took to complete the Architecture</t>
+  </si>
+  <si>
+    <t>Hardware Block Diagram</t>
+  </si>
+  <si>
+    <t>Product Architecture</t>
+  </si>
+  <si>
+    <t>Eagle Library</t>
+  </si>
+  <si>
+    <t>By Noon</t>
+  </si>
+  <si>
+    <t>Eagle Schematic</t>
+  </si>
+  <si>
+    <t>ERC Cleared</t>
+  </si>
+  <si>
+    <t>Eagle Layout</t>
+  </si>
+  <si>
+    <t>DRC is cleared</t>
+  </si>
+  <si>
+    <t>Cable Definition (if cables are needed in your design)</t>
+  </si>
+  <si>
+    <t>Feature and Behavior Acceptance criteria</t>
+  </si>
+  <si>
+    <t>Enter the total hours it took to complete the Realization</t>
+  </si>
+  <si>
+    <t>By end of class</t>
+  </si>
+  <si>
+    <t>Estimate Hours for Full BOM, Manfucaturing Package, and Bring Up</t>
+  </si>
+  <si>
+    <t>Board Bring Up</t>
+  </si>
+  <si>
+    <t>By class time</t>
+  </si>
+  <si>
+    <t>Board Fab and Build</t>
+  </si>
+  <si>
+    <t>Full BOM</t>
+  </si>
+  <si>
+    <t>Manufacturing Package</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +231,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,12 +264,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -147,7 +297,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -159,6 +309,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -501,187 +678,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
+    <col min="5" max="5" width="11"/>
     <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="11" max="11" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="7"/>
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="7"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="7"/>
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>42630</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="M5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="O5" s="5">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="P5" s="5">
         <v>5</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="15">
+        <v>42630</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="L6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="M6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="O6" s="5">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="P6" s="5">
         <v>3</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>42634</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="O7">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="P7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>42634</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="L8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="M8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="P8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="L9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="P9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <f>SUM(E5:E9)</f>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>42637</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7"/>
+      <c r="O10">
+        <f>SUM(O5:O9)</f>
         <v>37</v>
       </c>
-      <c r="F10" s="7">
-        <f>SUM(F5:F9)</f>
+      <c r="P10" s="7">
+        <f>SUM(P5:P9)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="11" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8">
+        <v>42637</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8">
+        <v>42637</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="K12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="L12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="O12">
         <v>15</v>
       </c>
-      <c r="F12">
+      <c r="P12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8">
+        <v>42637</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="O13">
         <v>1</v>
       </c>
+    </row>
+    <row r="14" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8">
+        <v>42639</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42641</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="K15" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8">
+        <v>42641</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42641</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8">
+        <v>42643</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42643</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="8">
+        <v>42643</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8">
+        <v>42643</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42644</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>42644</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42644</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="8">
+        <v>42644</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8">
+        <v>42648</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="8">
+        <v>42644</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="8">
+        <v>42650</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="8">
+        <v>42650</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>